--- a/biology/Botanique/Oursin_à_têtes_rondes/Oursin_à_têtes_rondes.xlsx
+++ b/biology/Botanique/Oursin_à_têtes_rondes/Oursin_à_têtes_rondes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oursin_%C3%A0_t%C3%AAtes_rondes</t>
+          <t>Oursin_à_têtes_rondes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinops sphaerocephalus
 L'Oursin à têtes rondes ou Azurette (Echinops sphaerocephalus) est une espèce de plante à fleurs appartenant au genre Echinops et à la famille des Astéracées (ou Composées). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oursin_%C3%A0_t%C3%AAtes_rondes</t>
+          <t>Oursin_à_têtes_rondes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace d'assez grande taille (50 cm à 1 m), à poils collants, fleurissant en été et poussant dans les lieux ensoleillés, rocheux ou broussailleux. Grandes feuilles molles, à revers tomenteux, pennatifides à lobes épineux. Tige blanchâtre, ridée et légèrement velue. Inflorescence le plus souvent solitaire, globuleuse et assez grosse (4 à 5 cm de diamètre), à fleurs blanchâtres ou bleu-gris.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oursin_%C3%A0_t%C3%AAtes_rondes</t>
+          <t>Oursin_à_têtes_rondes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : capitule de capitules
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oursin_%C3%A0_t%C3%AAtes_rondes</t>
+          <t>Oursin_à_têtes_rondes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinops cirsiifolius K.Koch
 Echinops macedonicus Formánek
